--- a/data/E-Wallet-Service/user-service_structure.xlsx
+++ b/data/E-Wallet-Service/user-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="209">
   <si>
     <t>Class Name</t>
   </si>
@@ -447,87 +447,87 @@
     <t>private</t>
   </si>
   <si>
+    <t>userId</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>emailId</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>userId</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
     <t>KAFKA_CREATE_WALLET_TOPIC</t>
   </si>
   <si>
+    <t>OK_STATUS_MESSAGE</t>
+  </si>
+  <si>
+    <t>NULL_OR_EMPTY_MESSAGE</t>
+  </si>
+  <si>
+    <t>OK_STATUS</t>
+  </si>
+  <si>
+    <t>DATE_NOT_PARSABLE</t>
+  </si>
+  <si>
+    <t>GENERIC_NOT_FOUND</t>
+  </si>
+  <si>
+    <t>GENERIC_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>GENERIC_NOT_FOUND_MESSAGE</t>
+  </si>
+  <si>
+    <t>DATE_NOT_PARSABLE_MESSAGE</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
+  </si>
+  <si>
+    <t>GENERIC_ERROR</t>
+  </si>
+  <si>
+    <t>CLIENT_ERROR</t>
+  </si>
+  <si>
+    <t>USER_NOT_FOUND</t>
+  </si>
+  <si>
     <t>NULL_OR_EMPTY</t>
   </si>
   <si>
-    <t>OK_STATUS_MESSAGE</t>
-  </si>
-  <si>
-    <t>GENERIC_NOT_FOUND_MESSAGE</t>
-  </si>
-  <si>
-    <t>NULL_OR_EMPTY_MESSAGE</t>
-  </si>
-  <si>
-    <t>GENERIC_NOT_FOUND</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE_MESSAGE</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE</t>
-  </si>
-  <si>
-    <t>TO_DATE_BEFORE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>USER_NOT_FOUND</t>
-  </si>
-  <si>
-    <t>CLIENT_ERROR</t>
-  </si>
-  <si>
-    <t>GENERIC_ERROR</t>
-  </si>
-  <si>
-    <t>GENERIC_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>OK_STATUS</t>
-  </si>
-  <si>
-    <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>$assertionsDisabled</t>
+  </si>
+  <si>
     <t>errorResponse</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>$assertionsDisabled</t>
-  </si>
-  <si>
     <t>REDIS_KEY_PREFIX</t>
   </si>
   <si>
+    <t>message</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -537,21 +537,21 @@
     <t>userRepository</t>
   </si>
   <si>
+    <t>redisKeyExpiryInHours</t>
+  </si>
+  <si>
     <t>redisTemplate</t>
   </si>
   <si>
+    <t>objectMapper</t>
+  </si>
+  <si>
     <t>kafkaTemplate</t>
   </si>
   <si>
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>objectMapper</t>
-  </si>
-  <si>
-    <t>redisKeyExpiryInHours</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -633,25 +633,19 @@
     <t>42</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>20</t>
@@ -5247,7 +5241,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5269,10 +5263,10 @@
         <v>134</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
@@ -5280,7 +5274,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>181</v>
@@ -5288,13 +5282,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>134</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5">
@@ -5302,10 +5296,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6">
@@ -5313,10 +5307,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -5324,10 +5318,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8">
@@ -5335,10 +5329,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
@@ -5346,18 +5340,18 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>181</v>
@@ -5365,10 +5359,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>181</v>
@@ -5379,10 +5373,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
@@ -5390,7 +5384,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>181</v>
@@ -5401,7 +5395,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>181</v>
@@ -5409,43 +5403,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>203</v>
@@ -5453,10 +5447,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>203</v>
@@ -5467,10 +5461,10 @@
         <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
@@ -5478,73 +5472,73 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>181</v>
@@ -5552,65 +5546,65 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>181</v>
@@ -5618,13 +5612,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35">
@@ -5632,10 +5626,10 @@
         <v>19</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36">
@@ -5643,7 +5637,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>181</v>
@@ -5651,10 +5645,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>181</v>
@@ -5662,10 +5656,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>181</v>
@@ -5673,10 +5667,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>181</v>
@@ -5684,10 +5678,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>181</v>
@@ -5695,10 +5689,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>181</v>
@@ -5706,10 +5700,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>181</v>
@@ -5717,21 +5711,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>181</v>
@@ -5739,32 +5733,32 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>181</v>
@@ -5772,21 +5766,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>181</v>
@@ -5794,10 +5788,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>181</v>
@@ -5805,10 +5799,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>181</v>
@@ -5816,10 +5810,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>181</v>
@@ -5827,10 +5821,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>181</v>
@@ -5838,10 +5832,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>181</v>
@@ -5849,87 +5843,87 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>181</v>
@@ -5937,10 +5931,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>181</v>
@@ -5948,43 +5942,43 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>181</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>181</v>
@@ -5992,43 +5986,43 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>191</v>
@@ -6036,18 +6030,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>14</v>
@@ -6058,65 +6052,65 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>181</v>
@@ -6124,10 +6118,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>181</v>
@@ -6135,43 +6129,43 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>181</v>
@@ -6179,76 +6173,76 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>203</v>
@@ -6256,233 +6250,46 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B96" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="C96" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B97" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="C97" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B98" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="C98" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="C99" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C100" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="C101" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B102" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="C102" t="s" s="0">
         <v>204</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B103" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C103" t="s" s="0">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B104" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="C104" t="s" s="0">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="B105" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="C105" t="s" s="0">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="B106" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="C106" t="s" s="0">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="B107" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="C107" t="s" s="0">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="0">
-        <v>120</v>
-      </c>
-      <c r="B108" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="C108" t="s" s="0">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="B109" t="s" s="0">
-        <v>129</v>
-      </c>
-      <c r="C109" t="s" s="0">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="B110" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="C110" t="s" s="0">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="B111" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="C111" t="s" s="0">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="B112" t="s" s="0">
-        <v>128</v>
-      </c>
-      <c r="C112" t="s" s="0">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6802,7 +6609,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -6830,7 +6637,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -6844,7 +6651,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -6886,7 +6693,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -6900,7 +6707,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -6914,7 +6721,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -6928,7 +6735,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -6956,7 +6763,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -6970,7 +6777,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -6984,7 +6791,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -6992,13 +6799,13 @@
         <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -7006,13 +6813,13 @@
         <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
@@ -7034,13 +6841,13 @@
         <v>44</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -7048,13 +6855,13 @@
         <v>44</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
@@ -7065,10 +6872,10 @@
         <v>161</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>34</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28">
@@ -7076,13 +6883,13 @@
         <v>48</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29">
@@ -7090,7 +6897,7 @@
         <v>48</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>13</v>
@@ -7104,13 +6911,13 @@
         <v>48</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>163</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -7146,13 +6953,13 @@
         <v>19</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -7160,13 +6967,13 @@
         <v>19</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -7191,10 +6998,10 @@
         <v>166</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -7205,10 +7012,10 @@
         <v>167</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38">
@@ -7230,13 +7037,13 @@
         <v>45</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -7258,7 +7065,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>140</v>
@@ -7272,13 +7079,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -7286,7 +7093,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>140</v>
@@ -7300,7 +7107,7 @@
         <v>101</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>140</v>
@@ -7314,7 +7121,7 @@
         <v>101</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>140</v>
@@ -7362,7 +7169,7 @@
         <v>140</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49">
@@ -7376,7 +7183,7 @@
         <v>140</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
@@ -7426,13 +7233,13 @@
         <v>99</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
@@ -7440,13 +7247,13 @@
         <v>99</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -7482,13 +7289,13 @@
         <v>126</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>107</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
@@ -7496,13 +7303,13 @@
         <v>126</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>173</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59">
@@ -7510,13 +7317,13 @@
         <v>126</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>71</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
@@ -7524,7 +7331,7 @@
         <v>126</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>140</v>
@@ -7538,13 +7345,13 @@
         <v>126</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>24</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/data/E-Wallet-Service/user-service_structure.xlsx
+++ b/data/E-Wallet-Service/user-service_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="211">
   <si>
     <t>Class Name</t>
   </si>
@@ -450,63 +450,66 @@
     <t>userId</t>
   </si>
   <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>emailId</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>KAFKA_CREATE_WALLET_TOPIC</t>
   </si>
   <si>
+    <t>CLIENT_ERROR</t>
+  </si>
+  <si>
+    <t>OK_STATUS</t>
+  </si>
+  <si>
+    <t>NULL_OR_EMPTY_MESSAGE</t>
+  </si>
+  <si>
+    <t>GENERIC_ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>DATE_NOT_PARSABLE</t>
+  </si>
+  <si>
+    <t>GENERIC_ERROR</t>
+  </si>
+  <si>
+    <t>TO_DATE_BEFORE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>USER_NOT_FOUND</t>
+  </si>
+  <si>
+    <t>GENERIC_NOT_FOUND_MESSAGE</t>
+  </si>
+  <si>
     <t>OK_STATUS_MESSAGE</t>
   </si>
   <si>
-    <t>NULL_OR_EMPTY_MESSAGE</t>
-  </si>
-  <si>
-    <t>OK_STATUS</t>
-  </si>
-  <si>
-    <t>DATE_NOT_PARSABLE</t>
-  </si>
-  <si>
     <t>GENERIC_NOT_FOUND</t>
   </si>
   <si>
-    <t>GENERIC_ERROR_MESSAGE</t>
-  </si>
-  <si>
-    <t>GENERIC_NOT_FOUND_MESSAGE</t>
-  </si>
-  <si>
     <t>DATE_NOT_PARSABLE_MESSAGE</t>
   </si>
   <si>
-    <t>TO_DATE_BEFORE_FROM_DATE</t>
-  </si>
-  <si>
     <t>TO_DATE_BEFORE_FROM_DATE_MESSAGE</t>
   </si>
   <si>
-    <t>GENERIC_ERROR</t>
-  </si>
-  <si>
-    <t>CLIENT_ERROR</t>
-  </si>
-  <si>
-    <t>USER_NOT_FOUND</t>
-  </si>
-  <si>
     <t>NULL_OR_EMPTY</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>errorResponse</t>
+  </si>
+  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -516,42 +519,39 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>errorResponse</t>
-  </si>
-  <si>
     <t>REDIS_KEY_PREFIX</t>
   </si>
   <si>
     <t>message</t>
   </si>
   <si>
+    <t>code</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
     <t>LOG</t>
   </si>
   <si>
     <t>userRepository</t>
   </si>
   <si>
+    <t>objectMapper</t>
+  </si>
+  <si>
+    <t>redisTemplate</t>
+  </si>
+  <si>
+    <t>kafkaTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>redisKeyExpiryInHours</t>
   </si>
   <si>
-    <t>redisTemplate</t>
-  </si>
-  <si>
-    <t>objectMapper</t>
-  </si>
-  <si>
-    <t>kafkaTemplate</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -633,19 +633,25 @@
     <t>42</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>0</t>
+    <t>8</t>
   </si>
   <si>
     <t>10</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>20</t>
@@ -5241,7 +5247,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5263,10 +5269,10 @@
         <v>134</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
@@ -5274,7 +5280,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>181</v>
@@ -5282,13 +5288,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5">
@@ -5296,10 +5302,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6">
@@ -5307,10 +5313,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
@@ -5318,10 +5324,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
@@ -5329,10 +5335,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -5340,18 +5346,18 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>181</v>
@@ -5359,10 +5365,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>181</v>
@@ -5373,10 +5379,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -5384,7 +5390,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>181</v>
@@ -5395,7 +5401,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>181</v>
@@ -5403,35 +5409,35 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -5439,10 +5445,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19">
@@ -5450,10 +5456,10 @@
         <v>44</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
@@ -5461,10 +5467,10 @@
         <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -5472,51 +5478,51 @@
         <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>181</v>
@@ -5524,54 +5530,54 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>181</v>
@@ -5582,10 +5588,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
@@ -5593,7 +5599,7 @@
         <v>19</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>181</v>
@@ -5604,7 +5610,7 @@
         <v>19</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>181</v>
@@ -5615,7 +5621,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>181</v>
@@ -5626,7 +5632,7 @@
         <v>19</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>181</v>
@@ -5637,7 +5643,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>181</v>
@@ -5645,10 +5651,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>181</v>
@@ -5656,10 +5662,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>181</v>
@@ -5667,10 +5673,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>181</v>
@@ -5678,10 +5684,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>181</v>
@@ -5689,35 +5695,35 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44">
@@ -5725,29 +5731,29 @@
         <v>34</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>181</v>
@@ -5755,10 +5761,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>181</v>
@@ -5766,10 +5772,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>181</v>
@@ -5777,10 +5783,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>181</v>
@@ -5788,10 +5794,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>181</v>
@@ -5799,43 +5805,43 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>181</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>181</v>
@@ -5846,10 +5852,10 @@
         <v>45</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56">
@@ -5857,7 +5863,7 @@
         <v>45</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>181</v>
@@ -5868,7 +5874,7 @@
         <v>45</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>181</v>
@@ -5876,54 +5882,54 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>181</v>
@@ -5931,10 +5937,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>181</v>
@@ -5942,120 +5948,120 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>205</v>
@@ -6063,10 +6069,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>181</v>
@@ -6074,10 +6080,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>181</v>
@@ -6085,43 +6091,43 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>181</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>181</v>
@@ -6129,167 +6135,310 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>204</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>181</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="B95" t="s" s="0">
+      <c r="B105" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B108" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="C95" t="s" s="0">
-        <v>204</v>
+      <c r="C108" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -6553,7 +6702,7 @@
         <v>140</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -6581,7 +6730,7 @@
         <v>140</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -6609,7 +6758,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -6623,7 +6772,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -6637,7 +6786,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -6651,7 +6800,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -6679,7 +6828,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -6693,7 +6842,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -6721,7 +6870,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -6763,7 +6912,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -6799,7 +6948,7 @@
         <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>140</v>
@@ -6813,13 +6962,13 @@
         <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -6827,7 +6976,7 @@
         <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>140</v>
@@ -6841,7 +6990,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>140</v>
@@ -6855,13 +7004,13 @@
         <v>44</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -6872,10 +7021,10 @@
         <v>161</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>162</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -6883,13 +7032,13 @@
         <v>48</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29">
@@ -6897,13 +7046,13 @@
         <v>48</v>
       </c>
       <c r="B29" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>163</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -6914,10 +7063,10 @@
         <v>164</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -6953,13 +7102,13 @@
         <v>19</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -6967,7 +7116,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>140</v>
@@ -6987,7 +7136,7 @@
         <v>140</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -7012,10 +7161,10 @@
         <v>167</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -7026,10 +7175,10 @@
         <v>168</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -7037,7 +7186,7 @@
         <v>45</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>140</v>
@@ -7051,13 +7200,13 @@
         <v>45</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41">
@@ -7065,13 +7214,13 @@
         <v>45</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -7093,7 +7242,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>140</v>
@@ -7121,7 +7270,7 @@
         <v>101</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>140</v>
@@ -7135,13 +7284,13 @@
         <v>101</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -7155,7 +7304,7 @@
         <v>140</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -7163,13 +7312,13 @@
         <v>93</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49">
@@ -7177,13 +7326,13 @@
         <v>93</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -7191,7 +7340,7 @@
         <v>93</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>140</v>
@@ -7205,7 +7354,7 @@
         <v>99</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>140</v>
@@ -7219,7 +7368,7 @@
         <v>99</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>140</v>
@@ -7233,7 +7382,7 @@
         <v>99</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>140</v>
@@ -7247,7 +7396,7 @@
         <v>99</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>140</v>
@@ -7275,13 +7424,13 @@
         <v>126</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57">
@@ -7289,13 +7438,13 @@
         <v>126</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58">
@@ -7309,7 +7458,7 @@
         <v>140</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59">
@@ -7337,7 +7486,7 @@
         <v>140</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61">
@@ -7345,13 +7494,13 @@
         <v>126</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>140</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>175</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
